--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110695419</v>
+        <v>110695420</v>
       </c>
       <c r="B2" t="n">
-        <v>78025</v>
+        <v>78605</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1352</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Småflikig brosklav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramalina sinensis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Jatta</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>601190.7972340106</v>
+        <v>601148.0112690092</v>
       </c>
       <c r="R2" t="n">
-        <v>6994137.266054657</v>
+        <v>6994183.570461283</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110695420</v>
+        <v>110695419</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>78034</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>1352</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Småflikig brosklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Ramalina sinensis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Jatta</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>601148.0112690092</v>
+        <v>601190.7972340106</v>
       </c>
       <c r="R3" t="n">
-        <v>6994183.570461283</v>
+        <v>6994137.266054657</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
